--- a/mero.xlsx
+++ b/mero.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008FB42D-BBCB-FF4C-A044-54AF77A5EDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C4786A-DF49-E14D-9354-5081D501FF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12520" yWindow="7220" windowWidth="27640" windowHeight="16940" xr2:uid="{B216AA04-8970-5148-BB64-D15592C759ED}"/>
+    <workbookView xWindow="27120" yWindow="9880" windowWidth="27640" windowHeight="16940" xr2:uid="{B216AA04-8970-5148-BB64-D15592C759ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -61,13 +61,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,12 +94,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +439,7 @@
   <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -442,63 +456,63 @@
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>9.25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>3.7109000000000003E-4</v>
-      </c>
-      <c r="B3" s="2">
+        <v>0.49875000000000003</v>
+      </c>
+      <c r="B3" s="3">
         <v>9.33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>1.48438E-3</v>
-      </c>
-      <c r="B4" s="2">
+        <v>1.9950000000000001</v>
+      </c>
+      <c r="B4" s="3">
         <v>9.33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>3.7109399999999998E-3</v>
-      </c>
-      <c r="B5" s="2">
+        <v>4.9874999999999998</v>
+      </c>
+      <c r="B5" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>7.4218799999999996E-3</v>
-      </c>
-      <c r="B6" s="2">
+        <v>9.9749999999999996</v>
+      </c>
+      <c r="B6" s="3">
         <v>9.18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>3.7109379999999997E-2</v>
-      </c>
-      <c r="B7" s="2">
+        <v>49.875</v>
+      </c>
+      <c r="B7" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>7.421875E-2</v>
-      </c>
-      <c r="B8" s="2">
+        <v>99.75</v>
+      </c>
+      <c r="B8" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>0.1484375</v>
-      </c>
-      <c r="B9" s="2">
+        <v>199.5</v>
+      </c>
+      <c r="B9" s="3">
         <v>24</v>
       </c>
     </row>
@@ -506,423 +520,423 @@
       <c r="A10" s="2">
         <v>0</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>3.7109399999999998E-3</v>
-      </c>
-      <c r="B11" s="2">
+        <v>4.9874999999999998</v>
+      </c>
+      <c r="B11" s="3">
         <v>8.9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>7.4218799999999996E-3</v>
-      </c>
-      <c r="B12" s="2">
+        <v>9.9749999999999996</v>
+      </c>
+      <c r="B12" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>1.4843749999999999E-2</v>
-      </c>
-      <c r="B13" s="2">
-        <v>15.33</v>
+        <v>99.75</v>
+      </c>
+      <c r="B13" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>7.421875E-2</v>
-      </c>
-      <c r="B14" s="2">
+        <v>199.5</v>
+      </c>
+      <c r="B14">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>0.1484375</v>
-      </c>
-      <c r="B15" s="2">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2">
+        <v>4.9874999999999998</v>
+      </c>
+      <c r="B16">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>3.7109399999999998E-3</v>
-      </c>
-      <c r="B17" s="2">
+        <v>9.9749999999999996</v>
+      </c>
+      <c r="B17">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>7.4218799999999996E-3</v>
-      </c>
-      <c r="B18" s="2">
-        <v>9</v>
+        <v>99.75</v>
+      </c>
+      <c r="B18">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>1.4843749999999999E-2</v>
-      </c>
-      <c r="B19" s="2">
-        <v>13.66</v>
+        <v>199.5</v>
+      </c>
+      <c r="B19">
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>7.421875E-2</v>
-      </c>
-      <c r="B20" s="2">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>9.83</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>0.1484375</v>
-      </c>
-      <c r="B21" s="2">
-        <v>24</v>
+        <v>4.9874999999999998</v>
+      </c>
+      <c r="B21">
+        <v>9.83</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2">
+        <v>9.9749999999999996</v>
+      </c>
+      <c r="B22">
         <v>9.83</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>3.7109399999999998E-3</v>
-      </c>
-      <c r="B23" s="2">
-        <v>9.83</v>
+        <v>19.95</v>
+      </c>
+      <c r="B23">
+        <v>10.83</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>7.4218799999999996E-3</v>
-      </c>
-      <c r="B24" s="2">
-        <v>9.83</v>
+        <v>39.9</v>
+      </c>
+      <c r="B24">
+        <v>12.66</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>1.4843749999999999E-2</v>
-      </c>
-      <c r="B25" s="2">
-        <v>10.83</v>
+        <v>79.8</v>
+      </c>
+      <c r="B25">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>2.9687499999999999E-2</v>
-      </c>
-      <c r="B26" s="2">
-        <v>12.66</v>
+        <v>159.6</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>5.9374999999999997E-2</v>
-      </c>
-      <c r="B27" s="2">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>9.83</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>0.11874999999999999</v>
-      </c>
-      <c r="B28" s="2">
-        <v>24</v>
+        <v>9.9749999999999996</v>
+      </c>
+      <c r="B28">
+        <v>9.66</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>0</v>
-      </c>
-      <c r="B29" s="2">
-        <v>9.83</v>
+        <v>19.95</v>
+      </c>
+      <c r="B29">
+        <v>10.5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>7.4218799999999996E-3</v>
-      </c>
-      <c r="B30" s="2">
-        <v>9.66</v>
+        <v>39.9</v>
+      </c>
+      <c r="B30">
+        <v>12.6</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>1.4843749999999999E-2</v>
-      </c>
-      <c r="B31" s="2">
-        <v>10.5</v>
+        <v>79.8</v>
+      </c>
+      <c r="B31" s="4">
+        <v>20.5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>2.9687499999999999E-2</v>
-      </c>
-      <c r="B32" s="2">
-        <v>12.6</v>
+        <v>159.6</v>
+      </c>
+      <c r="B32">
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>5.9374999999999997E-2</v>
-      </c>
-      <c r="B33" s="2">
-        <v>20.5</v>
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>9.5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>0.11874999999999999</v>
-      </c>
-      <c r="B34" s="2">
-        <v>24</v>
+        <v>9.9749999999999996</v>
+      </c>
+      <c r="B34">
+        <v>9.25</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>0</v>
-      </c>
-      <c r="B35" s="2">
-        <v>9.5</v>
+        <v>19.95</v>
+      </c>
+      <c r="B35">
+        <v>11.5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>7.4218799999999996E-3</v>
-      </c>
-      <c r="B36" s="2">
-        <v>9.25</v>
+        <v>39.9</v>
+      </c>
+      <c r="B36">
+        <v>12.83</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>1.4843749999999999E-2</v>
-      </c>
-      <c r="B37" s="2">
-        <v>11.5</v>
+        <v>79.8</v>
+      </c>
+      <c r="B37" s="4">
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>2.9687499999999999E-2</v>
-      </c>
-      <c r="B38" s="2">
-        <v>12.83</v>
+        <v>159.6</v>
+      </c>
+      <c r="B38">
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>5.9374999999999997E-2</v>
-      </c>
-      <c r="B39" s="2">
-        <v>19.399999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>0.11874999999999999</v>
-      </c>
-      <c r="B40" s="2">
-        <v>24</v>
+        <v>19.95</v>
+      </c>
+      <c r="B40">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>0</v>
-      </c>
-      <c r="B41" s="2">
-        <v>9</v>
+        <v>39.9</v>
+      </c>
+      <c r="B41">
+        <v>11.3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>1.4843749999999999E-2</v>
-      </c>
-      <c r="B42" s="2">
-        <v>9.1999999999999993</v>
+        <v>79.8</v>
+      </c>
+      <c r="B42">
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>2.9687499999999999E-2</v>
-      </c>
-      <c r="B43" s="2">
-        <v>11.3</v>
+        <v>159.6</v>
+      </c>
+      <c r="B43">
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>5.9374999999999997E-2</v>
-      </c>
-      <c r="B44" s="2">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>0.11874999999999999</v>
-      </c>
-      <c r="B45" s="2">
-        <v>24</v>
+        <v>39.9</v>
+      </c>
+      <c r="B45">
+        <v>11.2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>0</v>
-      </c>
-      <c r="B46" s="2">
-        <v>9</v>
+        <v>79.8</v>
+      </c>
+      <c r="B46">
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>2.9687499999999999E-2</v>
-      </c>
-      <c r="B47" s="2">
-        <v>11.2</v>
+        <v>159.6</v>
+      </c>
+      <c r="B47">
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>5.9374999999999997E-2</v>
-      </c>
-      <c r="B48" s="2">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>9.4</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>0.11874999999999999</v>
-      </c>
-      <c r="B49" s="2">
-        <v>24</v>
+        <v>39.9</v>
+      </c>
+      <c r="B49">
+        <v>11.33</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>0</v>
-      </c>
-      <c r="B50" s="2">
-        <v>9.4</v>
+        <v>79.8</v>
+      </c>
+      <c r="B50" s="4">
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>2.9687499999999999E-2</v>
-      </c>
-      <c r="B51" s="2">
-        <v>11.33</v>
+        <v>159.6</v>
+      </c>
+      <c r="B51">
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>5.9374999999999997E-2</v>
-      </c>
-      <c r="B52" s="2">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>9.4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>0.11874999999999999</v>
-      </c>
-      <c r="B53" s="2">
-        <v>24</v>
+        <v>39.9</v>
+      </c>
+      <c r="B53">
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>0</v>
-      </c>
-      <c r="B54" s="2">
-        <v>9.4</v>
+        <v>159.6</v>
+      </c>
+      <c r="B54">
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>2.9687499999999999E-2</v>
-      </c>
-      <c r="B55" s="2">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>9.4</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>5.9374999999999997E-2</v>
-      </c>
-      <c r="B56" s="2">
-        <v>17.170000000000002</v>
+        <v>19.95</v>
+      </c>
+      <c r="B56">
+        <v>9.4</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>0.11874999999999999</v>
-      </c>
-      <c r="B57" s="2">
-        <v>24</v>
+        <v>39.9</v>
+      </c>
+      <c r="B57">
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>0</v>
-      </c>
-      <c r="B58" s="2">
-        <v>9.4</v>
+        <v>159.6</v>
+      </c>
+      <c r="B58">
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>1.4843749999999999E-2</v>
-      </c>
-      <c r="B59" s="2">
-        <v>9.4</v>
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>2.9687499999999999E-2</v>
-      </c>
-      <c r="B60" s="2">
-        <v>11</v>
+        <v>49.875</v>
+      </c>
+      <c r="B60">
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>5.9374999999999997E-2</v>
-      </c>
-      <c r="B61" s="2">
-        <v>15</v>
+        <v>59.85</v>
+      </c>
+      <c r="B61">
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>0.11874999999999999</v>
-      </c>
-      <c r="B62" s="2">
+        <v>79.8</v>
+      </c>
+      <c r="B62">
         <v>24</v>
       </c>
     </row>
@@ -930,31 +944,31 @@
       <c r="A63" s="2">
         <v>0</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63">
         <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>3.7109379999999997E-2</v>
-      </c>
-      <c r="B64" s="2">
+        <v>49.875</v>
+      </c>
+      <c r="B64">
         <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>4.4531250000000001E-2</v>
-      </c>
-      <c r="B65" s="2">
+        <v>59.85</v>
+      </c>
+      <c r="B65">
         <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>5.9374999999999997E-2</v>
-      </c>
-      <c r="B66" s="2">
+        <v>79.8</v>
+      </c>
+      <c r="B66">
         <v>24</v>
       </c>
     </row>
@@ -962,155 +976,139 @@
       <c r="A67" s="2">
         <v>0</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>3.7109379999999997E-2</v>
-      </c>
-      <c r="B68" s="2">
-        <v>24</v>
+        <v>49.875</v>
+      </c>
+      <c r="B68">
+        <v>23.8</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>4.4531250000000001E-2</v>
-      </c>
-      <c r="B69" s="2">
+        <v>59.85</v>
+      </c>
+      <c r="B69">
         <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>5.9374999999999997E-2</v>
-      </c>
-      <c r="B70" s="2">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>9.33</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>0</v>
-      </c>
-      <c r="B71" s="2">
-        <v>9</v>
+        <v>44.887500000000003</v>
+      </c>
+      <c r="B71">
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>3.7109379999999997E-2</v>
-      </c>
-      <c r="B72" s="2">
-        <v>23.8</v>
+        <v>79.8</v>
+      </c>
+      <c r="B72">
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>4.4531250000000001E-2</v>
-      </c>
-      <c r="B73" s="2">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>9.33</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>0</v>
-      </c>
-      <c r="B74" s="2">
-        <v>9.33</v>
+        <v>44.887500000000003</v>
+      </c>
+      <c r="B74">
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>3.3398440000000001E-2</v>
-      </c>
-      <c r="B75" s="2">
-        <v>20</v>
+        <v>79.8</v>
+      </c>
+      <c r="B75">
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>5.9374999999999997E-2</v>
-      </c>
-      <c r="B76" s="2">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>9.5</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>0</v>
-      </c>
-      <c r="B77" s="2">
-        <v>9.33</v>
+        <v>44.887500000000003</v>
+      </c>
+      <c r="B77">
+        <v>21.66</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>3.3398440000000001E-2</v>
-      </c>
-      <c r="B78" s="2">
+        <v>79.8</v>
+      </c>
+      <c r="B78">
         <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>5.9374999999999997E-2</v>
-      </c>
-      <c r="B79" s="2">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>9.5</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>0</v>
-      </c>
-      <c r="B80" s="2">
-        <v>9.5</v>
+        <v>44.887500000000003</v>
+      </c>
+      <c r="B80">
+        <v>19.170000000000002</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>3.3398440000000001E-2</v>
-      </c>
-      <c r="B81" s="2">
-        <v>21.66</v>
+        <v>79.8</v>
+      </c>
+      <c r="B81">
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
-        <v>5.9374999999999997E-2</v>
-      </c>
-      <c r="B82" s="2">
-        <v>24</v>
-      </c>
+      <c r="A82" s="2"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
-        <v>0</v>
-      </c>
-      <c r="B83" s="2">
-        <v>9.5</v>
-      </c>
+      <c r="A83" s="2"/>
+      <c r="B83" s="3"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
-        <v>3.3398440000000001E-2</v>
-      </c>
-      <c r="B84" s="2">
-        <v>19.170000000000002</v>
-      </c>
+      <c r="A84" s="2"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
-        <v>5.9374999999999997E-2</v>
-      </c>
-      <c r="B85" s="2">
-        <v>24</v>
-      </c>
+      <c r="A85" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B86">
+    <sortCondition ref="A1:A86"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>